--- a/service-system/target/classes/static/桥梁上部尺寸.xlsx
+++ b/service-system/target/classes/static/桥梁上部尺寸.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A397E57D-8E5A-4B25-B63E-88EB0EE4697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="3915"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="尺寸" sheetId="1" r:id="rId1"/>
@@ -86,11 +92,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -253,67 +259,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -326,14 +332,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +380,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -443,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="9" customWidth="1"/>
@@ -635,7 +644,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.1" customHeight="1">
+    <row r="1" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -648,7 +657,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
@@ -663,7 +672,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -680,7 +689,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1">
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -707,7 +716,7 @@
       </c>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -722,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.95" customHeight="1">
+    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -733,7 +742,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="18.95" customHeight="1">
+    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -744,7 +753,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="18.95" customHeight="1">
+    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -755,7 +764,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="18.95" customHeight="1">
+    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -766,7 +775,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="18.95" customHeight="1">
+    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -777,7 +786,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="18.95" customHeight="1">
+    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -788,7 +797,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="18.95" customHeight="1">
+    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="24"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -799,7 +808,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="18.95" customHeight="1">
+    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -810,7 +819,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="18.95" customHeight="1">
+    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -821,7 +830,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1">
+    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -832,7 +841,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="18.95" customHeight="1">
+    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
@@ -843,7 +852,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="18.95" customHeight="1">
+    <row r="17" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -854,7 +863,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="18.95" customHeight="1">
+    <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
@@ -865,7 +874,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="18.95" customHeight="1">
+    <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -876,7 +885,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="18.95" customHeight="1">
+    <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
@@ -887,7 +896,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="18.95" customHeight="1">
+    <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
@@ -898,7 +907,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="18.95" customHeight="1">
+    <row r="22" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
@@ -909,7 +918,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="18.95" customHeight="1">
+    <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
@@ -920,7 +929,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="18.95" customHeight="1">
+    <row r="24" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
@@ -931,7 +940,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="18.95" customHeight="1">
+    <row r="25" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
@@ -942,7 +951,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="18.95" customHeight="1">
+    <row r="26" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -953,7 +962,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="18.95" customHeight="1">
+    <row r="27" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -964,7 +973,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="18.95" customHeight="1">
+    <row r="28" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -975,7 +984,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="18.95" customHeight="1">
+    <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -986,7 +995,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="18.95" customHeight="1">
+    <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -997,7 +1006,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="18.95" customHeight="1">
+    <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1008,7 +1017,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="18.95" customHeight="1">
+    <row r="32" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1019,7 +1028,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="18.95" customHeight="1">
+    <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1030,7 +1039,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" ht="18.95" customHeight="1">
+    <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1041,7 +1050,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" ht="18.95" customHeight="1">
+    <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1052,10 +1061,10 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A4:A5"/>
@@ -1082,9 +1091,8 @@
   <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                  复核：   &amp;R                   
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+    <oddFooter xml:space="preserve">&amp;R                   
          </oddFooter>
   </headerFooter>
 </worksheet>
